--- a/InputData/trans/PCiCDTdtTDM/Perc Chng in Cargo Dist Transported due to TDM.xlsx
+++ b/InputData/trans/PCiCDTdtTDM/Perc Chng in Cargo Dist Transported due to TDM.xlsx
@@ -8,16 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="GraphicalAnalysis" sheetId="4" r:id="rId2"/>
-    <sheet name="Calcs" sheetId="5" r:id="rId3"/>
-    <sheet name="PCiCDTdtTDM" sheetId="6" r:id="rId4"/>
+    <sheet name="Passenger Data" sheetId="4" r:id="rId2"/>
+    <sheet name="Freight Data" sheetId="8" r:id="rId3"/>
+    <sheet name="Calcs" sheetId="5" r:id="rId4"/>
+    <sheet name="PCiCDTdtTDM-passengers" sheetId="6" r:id="rId5"/>
+    <sheet name="PCiCDTdtTDM-freight" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>Source:</t>
   </si>
@@ -31,9 +33,6 @@
     <t>http://www.iea.org/publications/freepublications/publication/transport2009.pdf</t>
   </si>
   <si>
-    <t>Page 215, Figure 5.12</t>
-  </si>
-  <si>
     <t>Methodology</t>
   </si>
   <si>
@@ -178,10 +177,86 @@
     <t>Vehicle Type</t>
   </si>
   <si>
-    <t>Perc Change in Psgr*km due to TDM</t>
-  </si>
-  <si>
     <t>PCiCDTdtTDM Perc Change in Cargo Dist Transported due to TDM</t>
+  </si>
+  <si>
+    <t>Perc Change in ton*km due to TDM</t>
+  </si>
+  <si>
+    <t>Perc Change in psgr*km due to TDM</t>
+  </si>
+  <si>
+    <t>Below is a screenshot of part of Figure 6.7.</t>
+  </si>
+  <si>
+    <t>Heavy Trucks</t>
+  </si>
+  <si>
+    <t>Medium Trucks</t>
+  </si>
+  <si>
+    <t>Light Commercial</t>
+  </si>
+  <si>
+    <t>Freight*tons</t>
+  </si>
+  <si>
+    <t>Trucks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Passengers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Page 215, Figure 5.12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Freight:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Page 275, Figure 6.7</t>
+    </r>
+  </si>
+  <si>
+    <t>Freight Notes</t>
+  </si>
+  <si>
+    <t>Data for freight are not divided into OECD and non-OECD regions in the source document,</t>
+  </si>
+  <si>
+    <t>so we use the global figures.</t>
   </si>
 </sst>
 </file>
@@ -264,7 +339,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -282,6 +357,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -380,6 +458,55 @@
         <a:xfrm>
           <a:off x="8334375" y="1476375"/>
           <a:ext cx="2295525" cy="4210050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25182</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1333499"/>
+          <a:ext cx="11779032" cy="6505575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -678,7 +805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -686,7 +813,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -714,107 +841,107 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>14</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -827,19 +954,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>45</v>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -870,12 +1017,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -888,39 +1035,39 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -953,7 +1100,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -995,7 +1142,114 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>112</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>134</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>151</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1008,60 +1262,60 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <f>SUM(GraphicalAnalysis!G5:H5)</f>
+        <f>SUM('Passenger Data'!G5:H5)</f>
         <v>296</v>
       </c>
       <c r="C3">
-        <f>SUM(GraphicalAnalysis!D5:E5)</f>
+        <f>SUM('Passenger Data'!D5:E5)</f>
         <v>34</v>
       </c>
       <c r="D3">
-        <f>GraphicalAnalysis!I5</f>
+        <f>'Passenger Data'!I5</f>
         <v>134</v>
       </c>
       <c r="E3">
-        <f>GraphicalAnalysis!F5</f>
+        <f>'Passenger Data'!F5</f>
         <v>21</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <f>GraphicalAnalysis!C5</f>
+        <f>'Passenger Data'!C5</f>
         <v>6</v>
       </c>
       <c r="H3">
@@ -1071,29 +1325,29 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <f>SUM(GraphicalAnalysis!G6:H6)</f>
+        <f>SUM('Passenger Data'!G6:H6)</f>
         <v>219</v>
       </c>
       <c r="C4">
-        <f>SUM(GraphicalAnalysis!D6:E6)</f>
+        <f>SUM('Passenger Data'!D6:E6)</f>
         <v>55</v>
       </c>
       <c r="D4">
-        <f>GraphicalAnalysis!I6</f>
+        <f>'Passenger Data'!I6</f>
         <v>94</v>
       </c>
       <c r="E4">
-        <f>GraphicalAnalysis!F6</f>
+        <f>'Passenger Data'!F6</f>
         <v>43</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <f>GraphicalAnalysis!C6</f>
+        <f>'Passenger Data'!C6</f>
         <v>3</v>
       </c>
       <c r="H4">
@@ -1103,7 +1357,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="6">
         <f>(B4-B3)/B3</f>
@@ -1131,6 +1385,76 @@
       <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>-0.15257731958762888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <f>SUM('Freight Data'!B5:D5)</f>
+        <v>137</v>
+      </c>
+      <c r="C9">
+        <f>'Freight Data'!E5</f>
+        <v>134</v>
+      </c>
+      <c r="D9">
+        <f>SUM(B9:C9)</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <f>SUM('Freight Data'!B6:D6)</f>
+        <v>113</v>
+      </c>
+      <c r="C10">
+        <f>'Freight Data'!E6</f>
+        <v>151</v>
+      </c>
+      <c r="D10">
+        <f>SUM(B10:C10)</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="6">
+        <f>(B10-B9)/B9</f>
+        <v>-0.17518248175182483</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" ref="C11:D11" si="1">(C10-C9)/C9</f>
+        <v>0.12686567164179105</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="1"/>
+        <v>-2.5830258302583026E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -1158,15 +1482,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="8">
         <f>Calcs!B5</f>
@@ -1175,7 +1499,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="8">
         <f>Calcs!C5</f>
@@ -1184,7 +1508,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="8">
         <f>Calcs!D5</f>
@@ -1193,7 +1517,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="8">
         <f>Calcs!E5</f>
@@ -1202,7 +1526,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <f>Calcs!F5</f>
@@ -1211,11 +1535,90 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <f>Calcs!G5</f>
         <v>-0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8">
+        <f>Calcs!B11</f>
+        <v>-0.17518248175182483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="8">
+        <f>Calcs!C11</f>
+        <v>0.12686567164179105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/PCiCDTdtTDM/Perc Chng in Cargo Dist Transported due to TDM.xlsx
+++ b/InputData/trans/PCiCDTdtTDM/Perc Chng in Cargo Dist Transported due to TDM.xlsx
@@ -11,15 +11,14 @@
     <sheet name="Passenger Data" sheetId="4" r:id="rId2"/>
     <sheet name="Freight Data" sheetId="8" r:id="rId3"/>
     <sheet name="Calcs" sheetId="5" r:id="rId4"/>
-    <sheet name="PCiCDTdtTDM-passengers" sheetId="6" r:id="rId5"/>
-    <sheet name="PCiCDTdtTDM-freight" sheetId="7" r:id="rId6"/>
+    <sheet name="PCiCDTdtTDM" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>Source:</t>
   </si>
@@ -178,12 +177,6 @@
   </si>
   <si>
     <t>PCiCDTdtTDM Perc Change in Cargo Dist Transported due to TDM</t>
-  </si>
-  <si>
-    <t>Perc Change in ton*km due to TDM</t>
-  </si>
-  <si>
-    <t>Perc Change in psgr*km due to TDM</t>
   </si>
   <si>
     <t>Below is a screenshot of part of Figure 6.7.</t>
@@ -257,6 +250,12 @@
   </si>
   <si>
     <t>so we use the global figures.</t>
+  </si>
+  <si>
+    <t>passengers</t>
+  </si>
+  <si>
+    <t>freight</t>
   </si>
 </sst>
 </file>
@@ -354,12 +353,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -841,12 +840,12 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -976,17 +975,17 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1021,17 +1020,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1156,34 +1155,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>31</v>
@@ -1210,11 +1209,11 @@
       <c r="E5">
         <v>134</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1232,11 +1231,11 @@
       <c r="E6">
         <v>151</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1389,7 +1388,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1397,7 +1396,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>31</v>
@@ -1470,25 +1469,29 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1496,8 +1499,11 @@
         <f>Calcs!B5</f>
         <v>-0.26013513513513514</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1505,8 +1511,12 @@
         <f>Calcs!C5</f>
         <v>0.61764705882352944</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="8">
+        <f>Calcs!B11</f>
+        <v>-0.17518248175182483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1514,8 +1524,11 @@
         <f>Calcs!D5</f>
         <v>-0.29850746268656714</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1523,8 +1536,12 @@
         <f>Calcs!E5</f>
         <v>1.0476190476190477</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="8">
+        <f>Calcs!C11</f>
+        <v>0.12686567164179105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1532,8 +1549,11 @@
         <f>Calcs!F5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1541,83 +1561,7 @@
         <f>Calcs!G5</f>
         <v>-0.5</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="8">
-        <f>Calcs!B11</f>
-        <v>-0.17518248175182483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="8">
-        <f>Calcs!C11</f>
-        <v>0.12686567164179105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="C7" s="10">
         <v>0</v>
       </c>
     </row>

--- a/InputData/trans/PCiCDTdtTDM/Perc Chng in Cargo Dist Transported due to TDM.xlsx
+++ b/InputData/trans/PCiCDTdtTDM/Perc Chng in Cargo Dist Transported due to TDM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\PCiCDTdtTDM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="21075" windowHeight="10290"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="Calcs" sheetId="5" r:id="rId4"/>
     <sheet name="PCiCDTdtTDM" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -171,9 +176,6 @@
   </si>
   <si>
     <t>motorbikes</t>
-  </si>
-  <si>
-    <t>Vehicle Type</t>
   </si>
   <si>
     <t>PCiCDTdtTDM Perc Change in Cargo Dist Transported due to TDM</t>
@@ -257,11 +259,14 @@
   <si>
     <t>freight</t>
   </si>
+  <si>
+    <t>Percent Change (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -338,7 +343,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -359,6 +364,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -370,6 +378,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -560,7 +571,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,7 +606,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -812,7 +823,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,12 +851,12 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,17 +986,17 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1155,7 +1166,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1176,13 +1187,13 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>31</v>
@@ -1388,7 +1399,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,7 +1407,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>31</v>
@@ -1480,15 +1491,15 @@
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
